--- a/cs-api.xlsx
+++ b/cs-api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cs-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1F01F-5F7D-4694-AE7F-ADE761347EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5504F-583C-4F3C-AC30-E9E15A5FD00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0219A11-E7C2-42D5-B64B-9AA690C3F7E0}"/>
   </bookViews>
@@ -107,81 +107,92 @@
 }</t>
   </si>
   <si>
+    <t>model: vgg16, resnet50, senet50</t>
+  </si>
+  <si>
+    <t>model: COCO_InstanceSegmentation_mask_rcnn_X_101_32x8d_FPN_3x, COCO_InstanceSegmentation_mask_rcnn_R_101_FPN_3x</t>
+  </si>
+  <si>
     <t>{
-    'data': [
-        {
-            "confidence_score": predict_probability,
-            "class": xxx,
-            "bounding_box": [xmin, ymin, xmax, ymax],
-            "mask": binary_mask
-        },
-        {
-            "confidence_score": predict_probability,
-            "class": xxx,
-            "bounding_box": [xmin, ymin, xmax, ymax],
-            "mask": binary_mask
-        },
-        ...]
+    "data": {
+        "predicts": [
+            {
+                "confidence_score": predict_probability,
+                "class": xxx,
+                "bounding_box": [xmin, ymin, xmax, ymax],
+            },
+            {
+                "confidence_score": predict_probability,
+                "class": xxx,
+                "bounding_box": [xmin, ymin, xmax, ymax],
+            },
+            ...],
+        "process_time": second
+    }
 }</t>
   </si>
   <si>
     <t>{
-    'data': [
-        {
-            "feature": feature
-        }
-    ]
+    "data": {
+        "features": [
+            {
+                "feature": feature
+            }
+        ],
+        "process_time": second
+    }
 }</t>
   </si>
   <si>
     <t>{
-    'data': [
-        {
-            "confidence_score": predict_probability,
-            "class": 'face',
-            "bounding_box": [xmin, ymin, xmax, ymax],
-        },
-        {
-            "confidence_score": predict_probability,
-            "class": 'face',
-            "bounding_box": [xmin, ymin, xmax, ymax],
-        },
-        ...
-    ]
+    "data": {
+        "predicts": [
+            {
+                "confidence_score": predict_probability,
+                "class": xxx,
+                "bounding_box": [xmin, ymin, xmax, ymax],
+                "mask": binary_mask
+            },
+            {
+                "confidence_score": predict_probability,
+                "class": xxx,
+                "bounding_box": [xmin, ymin, xmax, ymax],
+                "mask": binary_mask
+            },
+            ...],
+        "process_time": second
+    }
 }</t>
   </si>
   <si>
     <t>{
-    'data': [
-        {
-            "confidence_score": predict_probability,
-            "class": 'face',
-            "bounding_box": [xmin, ymin, xmax, ymax],
-            "keypoints": {'left_eye': (x, y),
-                          'right_eye': (x, y),
-                          'nose': (x, y),
-                          'mouth_left': (x, y),
-                          'mouth_right': (x, y)}
-        },
-        {
-            "confidence_score": predict_probability,
-            "class": 'face',
-            "bounding_box": [xmin, ymin, xmax, ymax],
-            "keypoints": {'left_eye': (x, y),
-                          'right_eye': (x, y),
-                          'nose': (x, y),
-                          'mouth_left': (x, y),
-                          'mouth_right': (x, y)}
-        },
-        ...
-    ]
+    "data": {
+        "predicts": [
+            {
+                "confidence_score": predict_probability,
+                "class": 'face',
+                "bounding_box": [xmin, ymin, xmax, ymax],
+                "keypoints": {'left_eye': (x, y),
+                              'right_eye': (x, y),
+                              'nose': (x, y),
+                              'mouth_left': (x, y),
+                              'mouth_right': (x, y)}
+            },
+            {
+                "confidence_score": predict_probability,
+                "class": 'face',
+                "bounding_box": [xmin, ymin, xmax, ymax],
+                "keypoints": {'left_eye': (x, y),
+                              'right_eye': (x, y),
+                              'nose': (x, y),
+                              'mouth_left': (x, y),
+                              'mouth_right': (x, y)}
+            },
+            ...
+        ],
+        "process_time": second
+    }
 }</t>
-  </si>
-  <si>
-    <t>model: vgg16, resnet50, senet50</t>
-  </si>
-  <si>
-    <t>model: COCO_InstanceSegmentation_mask_rcnn_X_101_32x8d_FPN_3x, COCO_InstanceSegmentation_mask_rcnn_R_101_FPN_3x</t>
   </si>
 </sst>
 </file>
@@ -634,7 +645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +654,7 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -682,7 +693,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -696,16 +707,16 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -726,7 +737,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,14 +751,14 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -761,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -770,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,10 +795,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -804,6 +815,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x01010019899D326E247646886E79CAE7267130" ma:contentTypeVersion="11" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="a43b744c5626fe9192620574b94608cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0bab2ca-738c-4132-9e61-3368c959c758" xmlns:ns4="ed367577-e4aa-43fc-a6c5-469d02467029" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05bcb7de28cd61ed6ba30f957d4b79fc" ns3:_="" ns4:_="">
     <xsd:import namespace="e0bab2ca-738c-4132-9e61-3368c959c758"/>
@@ -1012,22 +1038,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669F2897-F43C-4B53-A14B-3A970C048AB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC59BEB-32F3-43E5-B56D-7B22B5141A15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF9100CC-52B5-4164-864B-F64BEF3B5281}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1044,21 +1072,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC59BEB-32F3-43E5-B56D-7B22B5141A15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669F2897-F43C-4B53-A14B-3A970C048AB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>